--- a/team_results/hifk/xlsx_hifk_3_results_data.xlsx
+++ b/team_results/hifk/xlsx_hifk_3_results_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,127 +441,115 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>hifk</t>
-        </is>
+          <t>standings_ranking</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>standings_ranking</t>
+          <t>points</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>points</t>
+          <t>games_played</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>games_played</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>48</v>
+          <t>points_per_game</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.667</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>points_per_game</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1.667</t>
-        </is>
+          <t>games_won</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>games_won</t>
+          <t>games_lost</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>games_lost</t>
+          <t>games_tied</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>games_tied</t>
+          <t>ot_ps_won</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ot_ps_won</t>
+          <t>ot_ps_lost</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ot_ps_lost</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
+          <t>powerplay_percentage</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>powerplay_percentage</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>25.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
           <t>powerplay_goals_for</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>32</v>
+      <c r="B12" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
